--- a/Pronosticos_Python.xlsx
+++ b/Pronosticos_Python.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brahi\Documents\GitHub\Prueba_EspDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA001A06-0EDB-4EC0-B018-0F53C69D80C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEC55FA-0477-4EDF-97F3-F502630C21CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5A94D88B-88B6-49A5-9B3F-FC6DBF414439}"/>
   </bookViews>
   <sheets>
     <sheet name="Pronosticos KPID B2B0276136" sheetId="1" r:id="rId1"/>
-    <sheet name="Pronosticos KPDI B2C0972712" sheetId="2" r:id="rId2"/>
-    <sheet name="Pronosticos PKID B2C1373778" sheetId="3" r:id="rId3"/>
+    <sheet name="Pronosticos PKID B2C1373778" sheetId="3" r:id="rId2"/>
+    <sheet name="Pronosticos KPDI B2C0972712" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -104,17 +104,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -915,6 +914,793 @@
             </a:r>
             <a:r>
               <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> PKID </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>B2C1373778</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pronosticos PKID B2C1373778'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CantidadVentaMes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Pronosticos PKID B2C1373778'!$A$2:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd\ hh:mm:ss</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44652</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44774</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44805</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44835</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44866</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44896</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44927</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44958</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44986</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45017</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45047</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45078</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45108</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45139</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45170</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45200</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45231</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45261</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45292</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45383</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pronosticos PKID B2C1373778'!$B$2:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0BC0-4B7A-B264-B7877701AAB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pronosticos PKID B2C1373778'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pronosticos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Pronosticos PKID B2C1373778'!$A$2:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd\ hh:mm:ss</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44652</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44774</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44805</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44835</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44866</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44896</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44927</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44958</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44986</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45017</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45047</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45078</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45108</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45139</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45170</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45200</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45231</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45261</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45292</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45383</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pronosticos PKID B2C1373778'!$C$2:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="39">
+                  <c:v>19.301141399513991</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>19.471963788128189</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>19.56886274821456</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>19.623828660715791</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19.655008061757879</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19.672694569724449</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0BC0-4B7A-B264-B7877701AAB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="82475711"/>
+        <c:axId val="82476191"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="82475711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd\ hh:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82476191"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="82476191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82475711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Pronosticos</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
               <a:t> KPDI </a:t>
             </a:r>
             <a:r>
@@ -1771,793 +2557,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO"/>
-              <a:t>Pronosticos</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" baseline="0"/>
-              <a:t> PKID </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>B2C1373778</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Pronosticos PKID B2C1373778'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CantidadVentaMes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Pronosticos PKID B2C1373778'!$A$2:$A$46</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd\ hh:mm:ss</c:formatCode>
-                <c:ptCount val="45"/>
-                <c:pt idx="0">
-                  <c:v>44105</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44136</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44166</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44197</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44228</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44256</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44287</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44317</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44348</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44378</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44409</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44440</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44470</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44501</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44531</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44562</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44593</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44621</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44652</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44682</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44713</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44743</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44774</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44805</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44835</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44866</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44896</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44927</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44958</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44986</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>45017</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>45047</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>45078</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>45108</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>45139</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>45170</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>45200</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>45231</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>45261</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>45292</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>45323</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>45352</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>45383</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>45413</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45444</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Pronosticos PKID B2C1373778'!$B$2:$B$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>19</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0BC0-4B7A-B264-B7877701AAB4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Pronosticos PKID B2C1373778'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pronosticos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Pronosticos PKID B2C1373778'!$A$2:$A$46</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd\ hh:mm:ss</c:formatCode>
-                <c:ptCount val="45"/>
-                <c:pt idx="0">
-                  <c:v>44105</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44136</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44166</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44197</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44228</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44256</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44287</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44317</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44348</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44378</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44409</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44440</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44470</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44501</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44531</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44562</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44593</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44621</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44652</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44682</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44713</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44743</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44774</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44805</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44835</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44866</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44896</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44927</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44958</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44986</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>45017</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>45047</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>45078</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>45108</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>45139</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>45170</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>45200</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>45231</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>45261</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>45292</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>45323</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>45352</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>45383</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>45413</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45444</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Pronosticos PKID B2C1373778'!$C$2:$C$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
-                <c:pt idx="39">
-                  <c:v>19.301141399513991</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>19.471963788128189</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>19.56886274821456</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>19.623828660715791</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>19.655008061757879</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>19.672694569724449</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0BC0-4B7A-B264-B7877701AAB4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="82475711"/>
-        <c:axId val="82476191"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="82475711"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd\ hh:mm:ss" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="82476191"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="82476191"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="82475711"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4272,22 +4271,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185736</xdr:rowOff>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>80961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABC0351A-7812-F799-0E58-0FF32FAC41E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7FE2F86-A276-092B-E621-D86BB5F773EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4313,22 +4312,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7FE2F86-A276-092B-E621-D86BB5F773EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABC0351A-7812-F799-0E58-0FF32FAC41E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4680,373 +4679,333 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>44256</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>276</v>
       </c>
-      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>44287</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>694</v>
       </c>
-      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>44317</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>543</v>
       </c>
-      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>44348</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>117</v>
       </c>
-      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>44378</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>73</v>
       </c>
-      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>44409</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>515</v>
       </c>
-      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>44440</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>168</v>
       </c>
-      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>44470</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>34</v>
       </c>
-      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>44501</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>127</v>
       </c>
-      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>44531</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>21.25</v>
       </c>
-      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>44562</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>14</v>
       </c>
-      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>44593</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>16</v>
       </c>
-      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>44621</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>266</v>
       </c>
-      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>44652</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>188</v>
       </c>
-      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>44682</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>176</v>
       </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>44713</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>781</v>
       </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>44743</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>226</v>
       </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>44774</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>292</v>
       </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>44805</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>53</v>
       </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>44835</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>141</v>
       </c>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>44866</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>85</v>
       </c>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>44896</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>176</v>
       </c>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>44927</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>75</v>
       </c>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>44958</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>40</v>
       </c>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>44986</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>128</v>
       </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>45017</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>48</v>
       </c>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>45047</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>42</v>
       </c>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>45078</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>25</v>
       </c>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>45108</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>156</v>
       </c>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>45139</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>104</v>
       </c>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>45170</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>93</v>
       </c>
-      <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>45200</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>97</v>
       </c>
-      <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>45231</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>126</v>
       </c>
-      <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>45261</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>79</v>
       </c>
-      <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>45292</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1">
+      <c r="C36">
         <v>144.2815763944032</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>45323</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>164.66593282991499</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>45352</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1">
+      <c r="C38">
         <v>171.0310056458591</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>45383</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1">
+      <c r="C39">
         <v>173.0185175930938</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>45413</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1">
+      <c r="C40">
         <v>173.639123806821</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>45444</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1">
+      <c r="C41">
         <v>173.83290984823449</v>
       </c>
     </row>
@@ -5058,6 +5017,397 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9288B6-B7F9-47EA-923B-FD6364CC3FDC}">
+  <dimension ref="A1:C46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>44105</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>44136</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>44166</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>44197</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>44228</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>44256</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>44287</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>44317</v>
+      </c>
+      <c r="B9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>44348</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>44378</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>44409</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>44440</v>
+      </c>
+      <c r="B13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>44470</v>
+      </c>
+      <c r="B14">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>44501</v>
+      </c>
+      <c r="B15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>44531</v>
+      </c>
+      <c r="B16">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>44562</v>
+      </c>
+      <c r="B17">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>44593</v>
+      </c>
+      <c r="B18">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>44621</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>44652</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>44682</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>44713</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>44743</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>44774</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>44805</v>
+      </c>
+      <c r="B25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>44835</v>
+      </c>
+      <c r="B26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>44866</v>
+      </c>
+      <c r="B27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>44896</v>
+      </c>
+      <c r="B28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>44927</v>
+      </c>
+      <c r="B29">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>44958</v>
+      </c>
+      <c r="B30">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>44986</v>
+      </c>
+      <c r="B31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>45017</v>
+      </c>
+      <c r="B32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>45047</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>45078</v>
+      </c>
+      <c r="B34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>45108</v>
+      </c>
+      <c r="B35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>45139</v>
+      </c>
+      <c r="B36">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>45170</v>
+      </c>
+      <c r="B37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>45200</v>
+      </c>
+      <c r="B38">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>45231</v>
+      </c>
+      <c r="B39">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>45261</v>
+      </c>
+      <c r="B40">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>45292</v>
+      </c>
+      <c r="C41">
+        <v>19.301141399513991</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>45323</v>
+      </c>
+      <c r="C42">
+        <v>19.471963788128189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>45352</v>
+      </c>
+      <c r="C43">
+        <v>19.56886274821456</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>45383</v>
+      </c>
+      <c r="C44">
+        <v>19.623828660715791</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>45413</v>
+      </c>
+      <c r="C45">
+        <v>19.655008061757879</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>45444</v>
+      </c>
+      <c r="C46">
+        <v>19.672694569724449</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BB1AAA-6AAC-459E-979B-1C6BF2F80BCA}">
   <dimension ref="A1:C58"/>
   <sheetViews>
@@ -5072,963 +5422,470 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>43739</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>12</v>
       </c>
-      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>43770</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>16</v>
       </c>
-      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>43800</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>43831</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>43862</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>43891</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>43922</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>33</v>
       </c>
-      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>43952</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>35</v>
       </c>
-      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>43983</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>92</v>
       </c>
-      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>44013</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>93</v>
       </c>
-      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>44044</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>14</v>
       </c>
-      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>44075</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>13</v>
       </c>
-      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>44105</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>44136</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>29</v>
       </c>
-      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>44166</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>29</v>
       </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>44197</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>5</v>
       </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>44228</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>6</v>
       </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>44256</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>2</v>
       </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>44287</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>2</v>
       </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>44317</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>5</v>
       </c>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>44348</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>3</v>
       </c>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>44378</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>7</v>
       </c>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>44409</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>7</v>
       </c>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>44440</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>4</v>
       </c>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>44470</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>28</v>
       </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>44501</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>22</v>
       </c>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>44531</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>21</v>
       </c>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>44562</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>20</v>
       </c>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
         <v>44593</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>6</v>
       </c>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
         <v>44621</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>34</v>
       </c>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <v>44652</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>4</v>
       </c>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
         <v>44682</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>6</v>
       </c>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>44713</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>21</v>
       </c>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
         <v>44743</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>5</v>
       </c>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
         <v>44774</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>5</v>
       </c>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
         <v>44805</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>10</v>
       </c>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
         <v>44835</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>3</v>
       </c>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
         <v>44866</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39">
         <v>6</v>
       </c>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
         <v>44896</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40">
         <v>7</v>
       </c>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
         <v>44927</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41">
         <v>4</v>
       </c>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
         <v>44958</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42">
         <v>5</v>
       </c>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
         <v>44986</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43">
         <v>5</v>
       </c>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
         <v>45017</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44">
         <v>5</v>
       </c>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
         <v>45047</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45">
         <v>5</v>
       </c>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
         <v>45078</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46">
         <v>5</v>
       </c>
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
         <v>45108</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47">
         <v>1</v>
       </c>
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
         <v>45139</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48">
         <v>1</v>
       </c>
-      <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
+      <c r="A49" s="4">
         <v>45170</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49">
         <v>1</v>
       </c>
-      <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
+      <c r="A50" s="4">
         <v>45200</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50">
         <v>1</v>
       </c>
-      <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
+      <c r="A51" s="4">
         <v>45231</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51">
         <v>0</v>
       </c>
-      <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
+      <c r="A52" s="4">
         <v>45261</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52">
         <v>1</v>
       </c>
-      <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
+      <c r="A53" s="4">
         <v>45292</v>
       </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1">
+      <c r="C53">
         <v>8.4659863071917449</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
+      <c r="A54" s="4">
         <v>45323</v>
       </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1">
+      <c r="C54">
         <v>12.897189422012209</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
+      <c r="A55" s="4">
         <v>45352</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1">
+      <c r="C55">
         <v>12.897189422012209</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
+      <c r="A56" s="4">
         <v>45383</v>
       </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1">
+      <c r="C56">
         <v>12.897189422012209</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
+      <c r="A57" s="4">
         <v>45413</v>
       </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1">
+      <c r="C57">
         <v>12.897189422012209</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
+      <c r="A58" s="4">
         <v>45444</v>
       </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1">
+      <c r="C58">
         <v>12.897189422012209</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9288B6-B7F9-47EA-923B-FD6364CC3FDC}">
-  <dimension ref="A1:C46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>44105</v>
-      </c>
-      <c r="B2" s="1">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>44136</v>
-      </c>
-      <c r="B3" s="1">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>44166</v>
-      </c>
-      <c r="B4" s="1">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>44197</v>
-      </c>
-      <c r="B5" s="1">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>44228</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>44256</v>
-      </c>
-      <c r="B7" s="1">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>44287</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>44317</v>
-      </c>
-      <c r="B9" s="1">
-        <v>42</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>44348</v>
-      </c>
-      <c r="B10" s="1">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>44378</v>
-      </c>
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>44409</v>
-      </c>
-      <c r="B12" s="1">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>44440</v>
-      </c>
-      <c r="B13" s="1">
-        <v>30</v>
-      </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>44470</v>
-      </c>
-      <c r="B14" s="1">
-        <v>46</v>
-      </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>44501</v>
-      </c>
-      <c r="B15" s="1">
-        <v>39</v>
-      </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>44531</v>
-      </c>
-      <c r="B16" s="1">
-        <v>51</v>
-      </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>44562</v>
-      </c>
-      <c r="B17" s="1">
-        <v>59</v>
-      </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>44593</v>
-      </c>
-      <c r="B18" s="1">
-        <v>39</v>
-      </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>44621</v>
-      </c>
-      <c r="B19" s="1">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>44652</v>
-      </c>
-      <c r="B20" s="1">
-        <v>4</v>
-      </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>44682</v>
-      </c>
-      <c r="B21" s="1">
-        <v>5</v>
-      </c>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>44713</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>44743</v>
-      </c>
-      <c r="B23" s="1">
-        <v>4</v>
-      </c>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>44774</v>
-      </c>
-      <c r="B24" s="1">
-        <v>3</v>
-      </c>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>44805</v>
-      </c>
-      <c r="B25" s="1">
-        <v>14</v>
-      </c>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>44835</v>
-      </c>
-      <c r="B26" s="1">
-        <v>21</v>
-      </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>44866</v>
-      </c>
-      <c r="B27" s="1">
-        <v>12</v>
-      </c>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>44896</v>
-      </c>
-      <c r="B28" s="1">
-        <v>23</v>
-      </c>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>44927</v>
-      </c>
-      <c r="B29" s="1">
-        <v>37</v>
-      </c>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>44958</v>
-      </c>
-      <c r="B30" s="1">
-        <v>34</v>
-      </c>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>44986</v>
-      </c>
-      <c r="B31" s="1">
-        <v>14</v>
-      </c>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>45017</v>
-      </c>
-      <c r="B32" s="1">
-        <v>18</v>
-      </c>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>45047</v>
-      </c>
-      <c r="B33" s="1">
-        <v>31</v>
-      </c>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>45078</v>
-      </c>
-      <c r="B34" s="1">
-        <v>16</v>
-      </c>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>45108</v>
-      </c>
-      <c r="B35" s="1">
-        <v>46</v>
-      </c>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>45139</v>
-      </c>
-      <c r="B36" s="1">
-        <v>27</v>
-      </c>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>45170</v>
-      </c>
-      <c r="B37" s="1">
-        <v>20</v>
-      </c>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>45200</v>
-      </c>
-      <c r="B38" s="1">
-        <v>17</v>
-      </c>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>45231</v>
-      </c>
-      <c r="B39" s="1">
-        <v>21</v>
-      </c>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>45261</v>
-      </c>
-      <c r="B40" s="1">
-        <v>19</v>
-      </c>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>45292</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1">
-        <v>19.301141399513991</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>45323</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1">
-        <v>19.471963788128189</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
-        <v>45352</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1">
-        <v>19.56886274821456</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
-        <v>45383</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1">
-        <v>19.623828660715791</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
-        <v>45413</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1">
-        <v>19.655008061757879</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
-        <v>45444</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1">
-        <v>19.672694569724449</v>
       </c>
     </row>
   </sheetData>
